--- a/test/testcases/testcase24_postgres_csv_counting.xlsx
+++ b/test/testcases/testcase24_postgres_csv_counting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B554C5F8-290F-4F97-909A-33CB0D4250BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE739A4F-3C6A-46DF-8B63-C281BBBFAD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,21 +140,12 @@
     <t>table</t>
   </si>
   <si>
-    <t>source_to_target</t>
-  </si>
-  <si>
     <t>hnpstatisticsonprem</t>
   </si>
   <si>
-    <t>INDICATORCODE</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
-    <t>raw_postgres_database_connection</t>
-  </si>
-  <si>
     <t>postgres</t>
   </si>
   <si>
@@ -192,6 +183,15 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>source_to_stage</t>
+  </si>
+  <si>
+    <t>raw_postgresql_database_connection</t>
+  </si>
+  <si>
+    <t>indicatorcode</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
